--- a/utils/docs/FORMATO_PARA_CARGAR_EMPLEADOS.xlsx
+++ b/utils/docs/FORMATO_PARA_CARGAR_EMPLEADOS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\aistermcon\utils\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF042B6-A71F-4332-84DC-8494D7D2DAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17826794-C15C-408D-8A9D-E5A29DE551DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="570" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>OBSERVACIONES</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>SI</t>
+  </si>
+  <si>
+    <t>APELLIDOS</t>
+  </si>
+  <si>
+    <t>TELEFONO</t>
   </si>
 </sst>
 </file>
@@ -539,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -550,21 +556,24 @@
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="22.5">
+    <row r="3" spans="1:4" ht="22.5">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -572,12 +581,15 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/utils/docs/FORMATO_PARA_CARGAR_EMPLEADOS.xlsx
+++ b/utils/docs/FORMATO_PARA_CARGAR_EMPLEADOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\aistermcon\utils\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17826794-C15C-408D-8A9D-E5A29DE551DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9287BDAF-0AF0-46BC-90F3-C85AD745F28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,9 +29,6 @@
     <t>EMPLEADOS</t>
   </si>
   <si>
-    <t>CEDULA</t>
-  </si>
-  <si>
     <t>NOMBRES</t>
   </si>
   <si>
@@ -48,6 +45,9 @@
   </si>
   <si>
     <t>TELEFONO</t>
+  </si>
+  <si>
+    <t>CÉDULA</t>
   </si>
 </sst>
 </file>
@@ -226,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -270,6 +270,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,18 +549,19 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="15" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1">
+    <row r="1" spans="1:4" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -567,24 +569,24 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1">
+    <row r="2" spans="1:4" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="22.5">
+    <row r="3" spans="1:4" customFormat="1" ht="22.5">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -618,7 +620,7 @@
     </row>
     <row r="3" spans="1:6" ht="18">
       <c r="A3" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -628,7 +630,7 @@
     </row>
     <row r="4" spans="1:6" ht="18">
       <c r="A4" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -638,7 +640,7 @@
     </row>
     <row r="5" spans="1:6" ht="18">
       <c r="A5" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
